--- a/data/trans_dic/P43E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Provincia-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6894055994600963</v>
+        <v>0.6874924676728866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6883460544000661</v>
+        <v>0.6870798714705479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8128550083777396</v>
+        <v>0.811715849547691</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8179484023287392</v>
+        <v>0.8195830380709669</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8145195458302148</v>
+        <v>0.8151569625446967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8941199227224643</v>
+        <v>0.8882374649609992</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8538527475931845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7427937670157005</v>
+        <v>0.7427937670157007</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.740908908526383</v>
+        <v>0.7355645884309313</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8163342588802674</v>
+        <v>0.8143884766399052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6927354688783238</v>
+        <v>0.6912690796284081</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8272491985221013</v>
+        <v>0.8292072962220647</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8872354137608739</v>
+        <v>0.8903621358481602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7882994643612379</v>
+        <v>0.7902962965508151</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6748632561548187</v>
+        <v>0.6761405248670358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9122481175181171</v>
+        <v>0.9151936746742471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7702901969270671</v>
+        <v>0.7725100427906003</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8067298789215767</v>
+        <v>0.8086215315546218</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9712605501746617</v>
+        <v>0.9743723122750855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8744709749675023</v>
+        <v>0.8722971613313405</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6831081826482627</v>
+        <v>0.6806993968979131</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8326554936469776</v>
+        <v>0.8335129555183564</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7487887175413753</v>
+        <v>0.7467393298468552</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7969886924241005</v>
+        <v>0.7890139901320762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9185108802278799</v>
+        <v>0.916177074264929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8405902263232194</v>
+        <v>0.84023504818391</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6965400917931834</v>
+        <v>0.7060210351479982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7981081734448986</v>
+        <v>0.8058156267404571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6675924217250793</v>
+        <v>0.6683430349083431</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8512117585316913</v>
+        <v>0.8537066963821038</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9402620269372511</v>
+        <v>0.9373034167491234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8086127708007702</v>
+        <v>0.8092939592328197</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.7432830933069484</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.816135219606082</v>
+        <v>0.8161352196060818</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7263869712798561</v>
+        <v>0.7288722113615195</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6245046981364883</v>
+        <v>0.6238955199080484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7446770671516383</v>
+        <v>0.7473515943214141</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8707141856215395</v>
+        <v>0.8716856355546435</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8419181137347425</v>
+        <v>0.8444285715250378</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8714604050229446</v>
+        <v>0.8727226649388257</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7081298623888141</v>
+        <v>0.7135597557074443</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7348723536541542</v>
+        <v>0.7364887014434621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5416926259099452</v>
+        <v>0.5387683542648775</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7996670208020064</v>
+        <v>0.801001899743808</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.818127452392783</v>
+        <v>0.8176638541640596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6301872523967063</v>
+        <v>0.6321312078986803</v>
       </c>
     </row>
     <row r="25">
@@ -975,7 +975,7 @@
         <v>0.8243794268250424</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8579107089069382</v>
+        <v>0.8579107089069383</v>
       </c>
     </row>
     <row r="26">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7469612157671724</v>
+        <v>0.7432167171667717</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.785718365931543</v>
+        <v>0.7879743754219994</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8175856636251222</v>
+        <v>0.8204469724406828</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.821085679324302</v>
+        <v>0.8199336943164469</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8552732782402969</v>
+        <v>0.860776836489998</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8908722957295085</v>
+        <v>0.8915096460259458</v>
       </c>
     </row>
     <row r="28">
@@ -1030,7 +1030,7 @@
         <v>0.8360761465892808</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
     </row>
     <row r="29">
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
     </row>
     <row r="30">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>137714</v>
+        <v>137332</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>137441</v>
+        <v>137188</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>148309</v>
+        <v>148101</v>
       </c>
     </row>
     <row r="7">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>163392</v>
+        <v>163718</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>162633</v>
+        <v>162761</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>163136</v>
+        <v>162062</v>
       </c>
     </row>
     <row r="8">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>274127</v>
+        <v>272149</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>310160</v>
+        <v>309421</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>167463</v>
+        <v>167109</v>
       </c>
     </row>
     <row r="11">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>306071</v>
+        <v>306796</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>337099</v>
+        <v>338287</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>190565</v>
+        <v>191048</v>
       </c>
     </row>
     <row r="12">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>127910</v>
+        <v>128152</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>226385</v>
+        <v>227116</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>123653</v>
+        <v>124009</v>
       </c>
     </row>
     <row r="15">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>152903</v>
+        <v>153261</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>241030</v>
+        <v>241802</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>140377</v>
+        <v>140028</v>
       </c>
     </row>
     <row r="16">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>172576</v>
+        <v>171967</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>220852</v>
+        <v>221079</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>156993</v>
+        <v>156563</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>201346</v>
+        <v>199331</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>243624</v>
+        <v>243005</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>176240</v>
+        <v>176165</v>
       </c>
     </row>
     <row r="20">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>95192</v>
+        <v>96488</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>67488</v>
+        <v>68140</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43100</v>
+        <v>43148</v>
       </c>
     </row>
     <row r="23">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>116330</v>
+        <v>116671</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79509</v>
+        <v>79258</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>52204</v>
+        <v>52248</v>
       </c>
     </row>
     <row r="24">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>109375</v>
+        <v>109749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>38595</v>
+        <v>38557</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>66217</v>
+        <v>66455</v>
       </c>
     </row>
     <row r="27">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>131107</v>
+        <v>131253</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52031</v>
+        <v>52187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>77490</v>
+        <v>77602</v>
       </c>
     </row>
     <row r="28">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>305215</v>
+        <v>307556</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>302046</v>
+        <v>302711</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>213492</v>
+        <v>212339</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>344669</v>
+        <v>345245</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>336266</v>
+        <v>336075</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>248369</v>
+        <v>249136</v>
       </c>
     </row>
     <row r="32">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>387567</v>
+        <v>385624</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>395439</v>
+        <v>396574</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>218725</v>
+        <v>219491</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>426027</v>
+        <v>425429</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>430445</v>
+        <v>433214</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>238332</v>
+        <v>238502</v>
       </c>
     </row>
     <row r="36">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
     </row>
     <row r="39">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
     </row>
     <row r="40">
